--- a/biology/Médecine/Famille_Sackler/Famille_Sackler.xlsx
+++ b/biology/Médecine/Famille_Sackler/Famille_Sackler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Sackler est une famille de milliardaires américains fondateurs et dirigeants des laboratoires pharmaceutiques Purdue Pharma et Mundipharma, faisant l'objet de controverses dans la crise des opioïdes, responsable de la mort de plus de 500 000 personnes depuis 1999.
 </t>
@@ -511,22 +523,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur M. Sackler (1913 – 1987), Mortimer Sackler (en) (1916 – 2010) et Raymond Sackler (en) (1920 – 2017) sont trois enfants juifs, et ces deux derniers promus chevaliers de l'Ordre de l'Empire britannique (KBE) par la reine Élisabeth II, en reconnaissance de leurs services rendus à la Couronne.
-Yitzhak et Sophie Marie Sackler (née Greenberg), leurs parents originaires de Galicie en Ukraine et de Pologne, arrivent aux États-Unis avant la Première Guerre mondiale. Ils grandissent à Brooklyn à New York, dans les années 1930[1].
-Les trois frères fréquentent des écoles de médecine américaines et les garçons deviennent psychiatres. À leur époque, Mortimer et Raymond n'ont pas été admis à l'école de médecine aux États-Unis en raison de quotas ethniques sur le nombre de Juifs admissibles, et ont dû effectuer une partie de leurs études notamment à Glasgow en Écosse[2],[3],[4].
-La fratrie travaille ensuite ensemble au Creedmoor Psychiatric Center dans le Queens. Ils sont souvent cités comme les premiers pionniers des techniques de médication qui ont mis fin à la pratique courante des lobotomies, et sont également considérés comme les premiers à se battre pour l'intégration raciale des banques de sang[5].
-En 1952, les frères rachètent une petite société pharmaceutique à Greenwich Village, que le frère aîné Arthur Sackler - considéré comme le patriarche de la famille - a financée, Purdue-Frederick[6]. Raymond et Mortimer dirigent Purdue, tandis qu'Arthur devient un pionnier de la publicité médicale. Il conçoit des campagnes s'adressant directement aux médecins et enrôle d'éminents médecins pour approuver les produits de Purdue. Le Temple de la renommée de la publicité médicale écrit en 1998 : « Aucun individu n'a fait plus pour façonner le caractère de la publicité médicale que le talentueux Dr Arthur Sackler. Sa contribution fondamentale a apporté toute la puissance de la publicité et de la promotion au marketing pharmaceutique »[7]. L'un des plus grands collectionneurs d'art de sa génération, il fait également don de la majorité de ses collections à des musées du monde entier. Après sa mort en 1987, son option sur un tiers de Purdue-Frederick est vendue par sa succession à ses deux frères qui la transforment en Purdue Pharma, basée à Stamford, dans le Connecticut[2]. Sont également crées des sociétés pharmaceutiques en Autriche, au Canada, à Chypre, en Allemagne, en Suisse et au Royaume-Uni[2].
-En 1996, Purdue Pharma lance OxyContin, une version reformulée de l'oxycodone sous une forme à libération lente[8]. L'oxycodone a été inventée pour la première fois en 1916 et vendue sous le nom d'Eukodal, mais avait été retirée du marché en 1990 en raison de problèmes de dépendance[réf. nécessaire].
-Fortement promue, l'oxycodone est un médicament clé dans l'émergence de l'épidémie d'opioïdes. Elizabeth Sackler, fille d'Arthur Sackler, a affirmé que sa branche de la famille n'avait pas participé ni bénéficié des ventes de stupéfiants. Tandis que certaines sources[Qui ?] ont critiqué Arthur Sackler pour avoir été le pionnier des techniques de marketing pour promouvoir les non-opioïdes des décennies plus tôt, le professeur Evan Gerstmann déclare dans le magazine Forbes : « C'est une inversion absurde de la logique de dire que parce qu'Arthur Sackler a été le pionnier du marketing direct auprès des médecins, il est responsable du détournement frauduleux de cette technique, qui s'est produit de nombreuses années après sa mort et dont il n'a tiré aucun profit financier[9],[10],[11] ».
-Descendance
-Arthur Sackler a eu quatre enfants, Carol Master et Elizabeth Sackler de son premier mariage, et Arthur F. Sackler et Denise Marika du second[12],[13].
-Mortimer Sackler a eu sept enfants qui ont survécu, dont trois siégeaient au conseil d'administration de la société qu'il a cofondée, Purdue Pharma—Ilene Sackler, Kathe A. Sackler et Mortimer David. Alfons Sackler, (né en 1972) et quatre qui ne le sont pas : Samantha Sophia Sackler Hunt, Marissa Sackler, Sophie Sackler et Michael Sackler[14]. 
-En 2018, plusieurs membres des familles Raymond et Mortimer Sackler, Richard Sackler, Theresa Sackler, Kathe Sackler, Jonathan Sackler, Mortimer Sackler, Beverly Sackler, David Sackler et Ilene Sackler, ont été cités accusés dans des poursuites intentées par de nombreux États dues à leur implication dans la crise des opioïdes[15],[16].
-Propriétés
-En 2012, un membre de la famille Sackler acquiert Stargroves, un manoir près de Newbury au Royaume-Uni pour plus de 15 millions £.; les anciens propriétaires à différentes époques du domaine ont été Mick Jagger et Rod Stewart[17],[18]. La famille est répertoriée pour la première fois dans la liste Forbes des familles les plus riches d'Amérique en 2015, et l'année suivante, elle apparaît à la 19e place[19].
-La famille Sackler est également propriétaire de Mundipharma, une société pharmaceutique discrète qui exerce d'importantes activités en Chine. Bloomberg News rapporte en 2020 que la famille avait engagé une banque d'investissement pour identifier un acheteur potentiel de l'entreprise [20], laquelle pourrait rapporter jusqu'à 3 à 5 milliards de dollars[21].
+Yitzhak et Sophie Marie Sackler (née Greenberg), leurs parents originaires de Galicie en Ukraine et de Pologne, arrivent aux États-Unis avant la Première Guerre mondiale. Ils grandissent à Brooklyn à New York, dans les années 1930.
+Les trois frères fréquentent des écoles de médecine américaines et les garçons deviennent psychiatres. À leur époque, Mortimer et Raymond n'ont pas été admis à l'école de médecine aux États-Unis en raison de quotas ethniques sur le nombre de Juifs admissibles, et ont dû effectuer une partie de leurs études notamment à Glasgow en Écosse.
+La fratrie travaille ensuite ensemble au Creedmoor Psychiatric Center dans le Queens. Ils sont souvent cités comme les premiers pionniers des techniques de médication qui ont mis fin à la pratique courante des lobotomies, et sont également considérés comme les premiers à se battre pour l'intégration raciale des banques de sang.
+En 1952, les frères rachètent une petite société pharmaceutique à Greenwich Village, que le frère aîné Arthur Sackler - considéré comme le patriarche de la famille - a financée, Purdue-Frederick. Raymond et Mortimer dirigent Purdue, tandis qu'Arthur devient un pionnier de la publicité médicale. Il conçoit des campagnes s'adressant directement aux médecins et enrôle d'éminents médecins pour approuver les produits de Purdue. Le Temple de la renommée de la publicité médicale écrit en 1998 : « Aucun individu n'a fait plus pour façonner le caractère de la publicité médicale que le talentueux Dr Arthur Sackler. Sa contribution fondamentale a apporté toute la puissance de la publicité et de la promotion au marketing pharmaceutique ». L'un des plus grands collectionneurs d'art de sa génération, il fait également don de la majorité de ses collections à des musées du monde entier. Après sa mort en 1987, son option sur un tiers de Purdue-Frederick est vendue par sa succession à ses deux frères qui la transforment en Purdue Pharma, basée à Stamford, dans le Connecticut. Sont également crées des sociétés pharmaceutiques en Autriche, au Canada, à Chypre, en Allemagne, en Suisse et au Royaume-Uni.
+En 1996, Purdue Pharma lance OxyContin, une version reformulée de l'oxycodone sous une forme à libération lente. L'oxycodone a été inventée pour la première fois en 1916 et vendue sous le nom d'Eukodal, mais avait été retirée du marché en 1990 en raison de problèmes de dépendance[réf. nécessaire].
+Fortement promue, l'oxycodone est un médicament clé dans l'émergence de l'épidémie d'opioïdes. Elizabeth Sackler, fille d'Arthur Sackler, a affirmé que sa branche de la famille n'avait pas participé ni bénéficié des ventes de stupéfiants. Tandis que certaines sources[Qui ?] ont critiqué Arthur Sackler pour avoir été le pionnier des techniques de marketing pour promouvoir les non-opioïdes des décennies plus tôt, le professeur Evan Gerstmann déclare dans le magazine Forbes : « C'est une inversion absurde de la logique de dire que parce qu'Arthur Sackler a été le pionnier du marketing direct auprès des médecins, il est responsable du détournement frauduleux de cette technique, qui s'est produit de nombreuses années après sa mort et dont il n'a tiré aucun profit financier ».
 </t>
         </is>
       </c>
@@ -552,10 +559,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Descendance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur Sackler a eu quatre enfants, Carol Master et Elizabeth Sackler de son premier mariage, et Arthur F. Sackler et Denise Marika du second,.
+Mortimer Sackler a eu sept enfants qui ont survécu, dont trois siégeaient au conseil d'administration de la société qu'il a cofondée, Purdue Pharma—Ilene Sackler, Kathe A. Sackler et Mortimer David. Alfons Sackler, (né en 1972) et quatre qui ne le sont pas : Samantha Sophia Sackler Hunt, Marissa Sackler, Sophie Sackler et Michael Sackler. 
+En 2018, plusieurs membres des familles Raymond et Mortimer Sackler, Richard Sackler, Theresa Sackler, Kathe Sackler, Jonathan Sackler, Mortimer Sackler, Beverly Sackler, David Sackler et Ilene Sackler, ont été cités accusés dans des poursuites intentées par de nombreux États dues à leur implication dans la crise des opioïdes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Famille_Sackler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_Sackler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, un membre de la famille Sackler acquiert Stargroves, un manoir près de Newbury au Royaume-Uni pour plus de 15 millions £.; les anciens propriétaires à différentes époques du domaine ont été Mick Jagger et Rod Stewart,. La famille est répertoriée pour la première fois dans la liste Forbes des familles les plus riches d'Amérique en 2015, et l'année suivante, elle apparaît à la 19e place.
+La famille Sackler est également propriétaire de Mundipharma, une société pharmaceutique discrète qui exerce d'importantes activités en Chine. Bloomberg News rapporte en 2020 que la famille avait engagé une banque d'investissement pour identifier un acheteur potentiel de l'entreprise , laquelle pourrait rapporter jusqu'à 3 à 5 milliards de dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Famille_Sackler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_Sackler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Généalogie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Isaac Sackler et Sophie Greenberg
 Arthur M. Sackler (1913–1987) (psychiatre, distributeur de produits pharmaceutiques et philanthrope) épouse Else Finnich Jorgensen en 1934 et divorce, puis épouse Marietta Lutze en 1949 et divorce, et enfin marié à Jillian Lesley Tully en 1981 jusqu'à la mort
